--- a/src/ncea-enricher.tests/TestData/NCEA T&F Vocab v1.1 2024-04-02.xlsx
+++ b/src/ncea-enricher.tests/TestData/NCEA T&F Vocab v1.1 2024-04-02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\189285\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\189285\OneDrive - Cognizant\DEFRA\NCEA\ncea-enricher\src\ncea-enricher.tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC347B-98A0-4BC9-9B43-9CD1D37674FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843A81E-CB9C-4FB4-BA87-30D20A637A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" activeTab="1" xr2:uid="{5889E374-FA06-432C-ACBB-C30A7C782498}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{5889E374-FA06-432C-ACBB-C30A7C782498}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-04-02 v1.1 for Cognizant" sheetId="1" r:id="rId1"/>
@@ -5671,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248D394-3D9D-4297-8AEB-3F914F5FBFB1}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9280,7 +9280,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>230</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>230</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>419</v>
       </c>
@@ -9427,11 +9427,11 @@
       <c r="F117" t="s">
         <v>424</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>419</v>
       </c>
@@ -9460,11 +9460,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="892e7964-f2ae-4e0f-9ab1-5629cbf4ff50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9707,27 +9708,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="892e7964-f2ae-4e0f-9ab1-5629cbf4ff50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D096F88C-8D35-489F-97CB-6A5ECEF4E212}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E17901-84FD-474D-9650-F4DA0C4FBB75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="892e7964-f2ae-4e0f-9ab1-5629cbf4ff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="57ac0297-03f4-4af0-9060-de2b82c20c72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9752,9 +9743,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E17901-84FD-474D-9650-F4DA0C4FBB75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D096F88C-8D35-489F-97CB-6A5ECEF4E212}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="892e7964-f2ae-4e0f-9ab1-5629cbf4ff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="57ac0297-03f4-4af0-9060-de2b82c20c72"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>